--- a/file/upload/custom.xlsx
+++ b/file/upload/custom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
   <si>
     <t>title</t>
   </si>
@@ -121,11 +121,11 @@
     <t>bar-bar-line</t>
   </si>
   <si>
-    <t>热量</t>
+    <t>末端供水温度-末端回水温度-末端供回水温差</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>负荷量与供热关系</t>
+    <t>末端供热量-水源热泵耗电量</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
@@ -133,16 +133,7 @@
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>末端供水温度-末端回水温度-末端供回水温差</t>
-  </si>
-  <si>
-    <t>高温板换制热量-水源热泵制热量-太阳能集热量-末端供热量</t>
-  </si>
-  <si>
-    <t>末端供热量-水源热泵耗电量</t>
-  </si>
-  <si>
-    <t>平均负荷</t>
+    <t>负荷量情况2</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -737,10 +728,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1089,7 +1077,7 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1100,231 +1088,231 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="1">
+      <c r="H2">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="E3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="1">
+      <c r="H3">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="1">
+      <c r="H4">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" t="s">
         <v>13</v>
       </c>
-      <c r="H5" s="1">
+      <c r="H5">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>28</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="E6" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" t="s">
         <v>29</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="1">
+      <c r="H6">
         <v>3</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" t="s">
         <v>32</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="F7" t="s">
         <v>18</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H7">
         <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>33</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" t="s">
         <v>32</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="F8" t="s">
         <v>34</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="1">
+      <c r="H8">
         <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="G9" t="s">
         <v>19</v>

--- a/file/upload/custom.xlsx
+++ b/file/upload/custom.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="20475" windowHeight="7380"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="20472" windowHeight="7380"/>
   </bookViews>
   <sheets>
     <sheet name="kamba" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
   <si>
     <t>title</t>
   </si>
@@ -134,6 +134,22 @@
   </si>
   <si>
     <t>负荷量情况2</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>热量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>高温板换制热功率-高温板换制热量</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>bar-bar</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>h</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -1077,17 +1093,17 @@
   <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="51.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="26.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.44140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="51.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="26.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" ht="13.5" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1113,7 +1129,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>8</v>
       </c>
@@ -1139,7 +1155,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
@@ -1165,7 +1181,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -1191,7 +1207,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1217,7 +1233,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -1243,7 +1259,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>30</v>
       </c>
@@ -1269,7 +1285,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1295,7 +1311,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>38</v>
       </c>
@@ -1303,19 +1319,19 @@
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="G9" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="H9">
         <v>5</v>

--- a/file/upload/custom.xlsx
+++ b/file/upload/custom.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="72">
   <si>
     <t>title</t>
   </si>
@@ -217,6 +217,26 @@
   </si>
   <si>
     <t>高温板换制热量-水源热泵制热量-太阳能集热量-末端供热量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>末端3</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>温度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>末端供水温度-末端回水温度-太阳能矩阵供水温度-太阳能矩阵回水温度</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>scatter-scatter-scatter-scatter</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>气温</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -579,10 +599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H20"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1112,6 +1132,32 @@
         <v>13</v>
       </c>
     </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>71</v>
+      </c>
+      <c r="C21" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" t="s">
+        <v>69</v>
+      </c>
+      <c r="F21" t="s">
+        <v>70</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+      <c r="H21">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
